--- a/data.xlsx
+++ b/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="11730" windowHeight="4140" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="11730" windowHeight="4140"/>
   </bookViews>
   <sheets>
     <sheet name="LoginTest" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="BookFlightTest" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:J12"/>
+  <oleSize ref="A1:L12"/>
 </workbook>
 </file>
 
@@ -410,7 +410,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
@@ -516,7 +516,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>

--- a/data.xlsx
+++ b/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="11730" windowHeight="4140"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="11730" windowHeight="4035" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LoginTest" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="BookFlightTest" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:L12"/>
+  <oleSize ref="A1:K12"/>
 </workbook>
 </file>
 
@@ -410,7 +410,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
@@ -460,8 +460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,7 +471,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
